--- a/Métodos Estadísticos  posgrado/ejemploSpearman.xlsx
+++ b/Métodos Estadísticos  posgrado/ejemploSpearman.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\GitHub\Metodos-estadisticos\Métodos Estadísticos  posgrado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\afbel\Documents\GitHub\Metodos-estadisticos\Métodos Estadísticos  posgrado\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FC66889-E83E-4355-A815-92130F91F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002F4751-F384-48B9-8E90-A39A93F8CFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6750" yWindow="2460" windowWidth="22050" windowHeight="12270" xr2:uid="{0C3578C9-B3CC-44EF-ACE5-474FA537E5DD}"/>
+    <workbookView xWindow="12120" yWindow="1425" windowWidth="18000" windowHeight="9360" xr2:uid="{0C3578C9-B3CC-44EF-ACE5-474FA537E5DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,12 +34,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>CI</t>
   </si>
   <si>
     <t>HORAS DE TV</t>
+  </si>
+  <si>
+    <t>ORDEN(tv)</t>
+  </si>
+  <si>
+    <t>ORDEN(ci)</t>
+  </si>
+  <si>
+    <t>D^2</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -391,100 +403,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91D1B52-CADB-44B1-8F8A-D22E605D00AC}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>86</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>C2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>F2^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>97</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="0">C3-D3</f>
+        <v>-4</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G11" si="1">F3^2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>99</v>
       </c>
       <c r="B4">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
       <c r="B5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-5.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>4.5</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-3.5</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>103</v>
       </c>
       <c r="B7">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2.5</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>110</v>
       </c>
       <c r="B9">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>113</v>
       </c>
       <c r="B10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>9.5</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>113</v>
       </c>
       <c r="B11">
         <v>12</v>
+      </c>
+      <c r="C11">
+        <v>9.5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>30.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
